--- a/importadores/exports/clientes_export.xlsx
+++ b/importadores/exports/clientes_export.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\talentus\importadores\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\xampp\htdocs\talentus\importadores\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60D2D13-6BC2-4C65-84A3-3D4198A59101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3C54A20F-6CC5-4176-9210-C762DC038D58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,15 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,18 +88,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -146,34 +132,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -187,129 +170,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2079173</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA96C4-A220-4180-9AC9-83600B3BD34F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2841173" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo: esquinas redondeadas 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701AF618-C289-4870-901E-326E0DDFC272}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="628650"/>
-          <a:ext cx="2752725" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1400" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>CLIENTES</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1100" b="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E057D-896A-4D17-995E-3E5D6E9FCAC8}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,150 +487,59 @@
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D2" s="4">
         <v>44813</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E2" s="5">
         <v>0.19271990740740741</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F2" s="6">
         <v>44813.192719907405</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G2" s="5">
         <v>0.38204861111111116</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>